--- a/291-erreur-organization-lieu-dit-precinct/ig/ValueSet-act-type-ror-valueset.xlsx
+++ b/291-erreur-organization-lieu-dit-precinct/ig/ValueSet-act-type-ror-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T13:56:57+00:00</t>
+    <t>2024-02-06T14:47:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
